--- a/public/import/Format Import Mahasiswa (1).xlsx
+++ b/public/import/Format Import Mahasiswa (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b8e346f57f07a67/Dokumen/Laravel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4A9A65AB1C90B5E8E10FD1D47B69C3BC64AF10ED" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A7278905-EFFD-4589-9066-0C1A3AB94E9C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4A9A65AB1C90B5E8E10FD1D47B69C3BC64AF10ED" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FD2AC1D7-6BA2-4F76-86B0-BF19BCF02E26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
